--- a/Simulasi Excel by YukCoding.xlsx
+++ b/Simulasi Excel by YukCoding.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\www\fire-predict-mlr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C72FB3E-C5D4-4687-939A-79E90BE64CC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8CF2F22-3B91-4387-A28E-88BC0DE36422}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dataset" sheetId="1" r:id="rId1"/>
-    <sheet name="Multi Linear Regression" sheetId="3" r:id="rId2"/>
+    <sheet name="Multiple Linear Regression" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
 </workbook>
@@ -137,9 +137,6 @@
     <t>Total (∑)</t>
   </si>
   <si>
-    <t>aktual</t>
-  </si>
-  <si>
     <t>error</t>
   </si>
   <si>
@@ -165,6 +162,9 @@
   </si>
   <si>
     <t>Copyright © 2022 - YukCoding Media</t>
+  </si>
+  <si>
+    <t>Data Aktual</t>
   </si>
 </sst>
 </file>
@@ -325,6 +325,1047 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-ID"/>
+              <a:t>Burn Area</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Multiple Linear Regression'!$G$2:$G$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2019</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Multiple Linear Regression'!$K$2:$K$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>1166.6176962287971</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4448.1305556956595</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2049.023805323392</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7314.4224530865476</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4166.4098721418914</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9465.5258001363363</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4111.3711048282839</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1642.106821409579</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2591.4030517128408</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>583.52220666385699</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8901.7680993150479</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4450.2683818390005</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>841.41223439456508</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>312.16547118502604</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3687.3096241419835</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1152.6818864543482</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1613.901321591487</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3050.6643166681015</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-71D8-49BF-B716-1E552E67AD53}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="738024128"/>
+        <c:axId val="738024544"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="738024128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="738024544"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="738024544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="738024128"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>30305</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>39832</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>584487</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>116032</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E96F1BC-F64B-C50B-2E15-558038BD63A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>34636</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>22549</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>199159</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>155048</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89ED8921-0FAF-0E9E-25FF-21DB439256A9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4017818" y="10707867"/>
+          <a:ext cx="4182341" cy="1846999"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -616,7 +1657,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H223"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A82" workbookViewId="0">
       <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
@@ -4456,8 +5497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC03CDEF-4195-4A8A-9455-2AFDC83D13C9}">
   <dimension ref="A1:T223"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D73" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="Q104" sqref="Q104"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="T66" sqref="T66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6602,16 +7643,16 @@
         <v>13.553347136578999</v>
       </c>
       <c r="Q71" t="s">
+        <v>38</v>
+      </c>
+      <c r="R71" t="s">
         <v>39</v>
       </c>
-      <c r="R71" t="s">
+      <c r="S71" t="s">
         <v>40</v>
       </c>
-      <c r="S71" t="s">
+      <c r="T71" t="s">
         <v>41</v>
-      </c>
-      <c r="T71" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.25">
@@ -6642,7 +7683,7 @@
         <v>135.63409856043</v>
       </c>
       <c r="I73" s="7" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="J73">
         <f>K3</f>
@@ -7428,7 +8469,7 @@
         <v>5165.0629218999984</v>
       </c>
       <c r="Q91" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R91">
         <f>AVERAGE(R73:R89)</f>
@@ -7457,13 +8498,13 @@
         <v>488.50878027957998</v>
       </c>
       <c r="R92" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="S92" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="S92" s="7" t="s">
+      <c r="T92" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="T92" s="7" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="93" spans="1:20" x14ac:dyDescent="0.25">
@@ -7522,7 +8563,7 @@
         <v>203.57148358486</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>5</v>
       </c>
@@ -7536,7 +8577,7 @@
         <v>760.00523429907003</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>5</v>
       </c>
@@ -7550,7 +8591,7 @@
         <v>230.68750659899999</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>5</v>
       </c>
@@ -7564,7 +8605,7 @@
         <v>257.84604336634999</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>5</v>
       </c>
@@ -7577,11 +8618,11 @@
       <c r="D100">
         <v>94.994529201971005</v>
       </c>
-      <c r="M100" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J100" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>5</v>
       </c>
@@ -7595,7 +8636,7 @@
         <v>27.142137245472998</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>5</v>
       </c>
@@ -7609,7 +8650,7 @@
         <v>176.43508057727999</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>5</v>
       </c>
@@ -7623,7 +8664,7 @@
         <v>94.996290120435006</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>5</v>
       </c>
@@ -7637,7 +8678,7 @@
         <v>94.849870413746999</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>5</v>
       </c>
@@ -7651,7 +8692,7 @@
         <v>1357.1948194438</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>5</v>
       </c>
@@ -7665,7 +8706,7 @@
         <v>122.14396086556</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>5</v>
       </c>
@@ -7679,7 +8720,7 @@
         <v>149.14412549948</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>5</v>
       </c>
@@ -7693,7 +8734,7 @@
         <v>67.792377764221996</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>5</v>
       </c>
@@ -7707,7 +8748,7 @@
         <v>121.94815270241</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>5</v>
       </c>
@@ -7721,7 +8762,7 @@
         <v>325.54248390686001</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>5</v>
       </c>
@@ -7735,7 +8776,7 @@
         <v>190.00653934661</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>5</v>
       </c>
@@ -9307,5 +10348,6 @@
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="203" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>